--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\L3\S2\box-cert-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\box-cert-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F30AD8E-17C9-4D95-8C25-F48E92203C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF7BE6-7854-4CA3-9F67-DF478FC053CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To do list" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>To do list</t>
   </si>
@@ -88,6 +88,27 @@
   </si>
   <si>
     <t>User Guide (installation, lancement, scénarios d’usage)</t>
+  </si>
+  <si>
+    <t>Faire Interfcace Authentification</t>
+  </si>
+  <si>
+    <t>Faire Back-end Authentification</t>
+  </si>
+  <si>
+    <t>Developpement de l'algorithme</t>
+  </si>
+  <si>
+    <t>Interface Enseiganant</t>
+  </si>
+  <si>
+    <t>Back-end Enseignant</t>
+  </si>
+  <si>
+    <t>Interface Etudiant</t>
+  </si>
+  <si>
+    <t>Back-end Etudiant</t>
   </si>
 </sst>
 </file>
@@ -274,42 +295,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -343,7 +329,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +373,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,7 +443,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>39370</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -524,7 +510,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -591,7 +577,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>11430</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2389,10 +2375,10 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" style="9" customWidth="1"/>
@@ -2455,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="12"/>
       <c r="H4" s="3" t="s">
@@ -2474,7 +2460,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -2611,8 +2597,12 @@
         <v>11</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="4" t="b">
         <v>0</v>
       </c>
@@ -2623,8 +2613,12 @@
         <v>12</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="E15" s="4" t="b">
         <v>0</v>
       </c>
@@ -2635,8 +2629,12 @@
         <v>13</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="E16" s="4" t="b">
         <v>0</v>
       </c>
@@ -2647,8 +2645,12 @@
         <v>14</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="4" t="b">
         <v>0</v>
       </c>
@@ -2659,8 +2661,12 @@
         <v>15</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="E18" s="4" t="b">
         <v>0</v>
       </c>
@@ -2671,8 +2677,12 @@
         <v>16</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="E19" s="4" t="b">
         <v>0</v>
       </c>
@@ -2683,7 +2693,9 @@
         <v>17</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="4" t="b">
         <v>0</v>
@@ -2793,12 +2805,12 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A10:E11 A4:B9 D4:E9 A14:E28 A12:B13 D12:E13">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($E4=TRUE,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11 C14:C28">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$E10=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\box-cert-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\L3\S2\box-cert-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF7BE6-7854-4CA3-9F67-DF478FC053CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB1FE39-9033-4529-94D1-73643531EAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To do list" sheetId="6" r:id="rId1"/>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -285,9 +285,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -341,11 +338,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,7 +406,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2378,7 +2375,7 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" style="9" customWidth="1"/>
@@ -2508,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -2517,7 +2514,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -2549,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -2620,7 +2617,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -2636,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -2804,7 +2801,7 @@
       <sortCondition descending="1" ref="D3:D28"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A10:E11 A4:B9 D4:E9 A14:E28 A12:B13 D12:E13">
+  <conditionalFormatting sqref="A4:B9 D4:E9 A10:E11 A12:B13 D12:E13 A14:E28">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($E4=TRUE,$C4&lt;&gt;"")</formula>
     </cfRule>

--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\L3\S2\box-cert-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB1FE39-9033-4529-94D1-73643531EAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F239C6B-62FD-4C26-9A30-3D1593830433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>To do list</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Back-end Etudiant</t>
+  </si>
+  <si>
+    <t>css auth (head)</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2375,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2704,7 +2707,9 @@
         <v>18</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="4" t="b">
         <v>0</v>

--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\L3\S2\box-cert-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F239C6B-62FD-4C26-9A30-3D1593830433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63596678-90EB-4942-BB19-5F374E073811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,23 +349,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,15 +413,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2492,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -2524,7 +2524,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -2540,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -2556,7 +2556,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -2652,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -2668,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -2684,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="12"/>
     </row>

--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\L3\S2\box-cert-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63596678-90EB-4942-BB19-5F374E073811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3063009F-B8C9-4D0C-8324-96C6AAB007AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2374,7 +2374,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2572,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -2588,7 +2588,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="12"/>
     </row>
